--- a/ResultadoEleicoesDistritos/GUARDA_VILA NOVA DE FOZ CÔA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_VILA NOVA DE FOZ CÔA.xlsx
@@ -597,64 +597,64 @@
         <v>2020</v>
       </c>
       <c r="H2" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J2" t="n">
-        <v>802</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="T2" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>1289</v>
+        <v>1272</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1313</v>
+        <v>1297</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
